--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3182,7 +3183,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -3214,7 +3214,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -3246,7 +3245,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -3262,6 +3260,1234 @@
       </c>
       <c r="H36" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9670</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4493,4 +4494,400 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4890,4 +4891,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4899,7 +4900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4910,17 +4911,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4930,14 +4951,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.89</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4946,14 +4989,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.03</v>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4962,14 +5027,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.94</v>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4978,13 +5065,453 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5410,7 +5411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5421,17 +5422,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5441,14 +5462,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.91</v>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5457,14 +5500,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89</v>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5473,14 +5538,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.03</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5489,14 +5576,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.94</v>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5505,13 +5614,279 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5769,7 +5770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5780,17 +5781,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5800,14 +5821,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
       </c>
     </row>
     <row r="3">
@@ -5816,14 +5859,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.91</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5832,14 +5897,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.89</v>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5848,14 +5935,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.03</v>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5864,14 +5973,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.94</v>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5880,13 +6011,447 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.89</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.03</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>7.94</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.93</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,7 +1676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2015,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2411,7 +2940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3639,7 +4168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5004,7 +5533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
+++ b/数据整理/stocks/A股/深证主板/002739-万达电影.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.91</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.89</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>3.03</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>7.94</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1486 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安媒体互联网混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2090,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>017766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4424</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏兴和混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1676,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2034,7 +4169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2544,7 +4679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2940,7 +5075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4168,7 +6303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5531,1460 +7666,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安媒体互联网混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7669</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006879</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安智能生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4886</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7517</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5744</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>970010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>方正证券金立方一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5678</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000457</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5029</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>377010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4697</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>970009</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正证券金立方一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4208</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4068</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007460</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安成长创新混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3914</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2157</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002270</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴安盈量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1998</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001312</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1671</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0958</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.42</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0856</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160722</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实惠泽灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002144</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>